--- a/students_evaluation/uploaded-files/test.xlsx
+++ b/students_evaluation/uploaded-files/test.xlsx
@@ -14,21 +14,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>moko</t>
-  </si>
-  <si>
-    <t>lol</t>
-  </si>
-  <si>
-    <t>bang</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Ramesh</t>
+  </si>
+  <si>
+    <t>Durgesh</t>
+  </si>
+  <si>
+    <t>Margesh</t>
+  </si>
+  <si>
+    <t>Dilesh</t>
+  </si>
+  <si>
+    <t>Shankar</t>
+  </si>
+  <si>
+    <t>Shreya</t>
+  </si>
+  <si>
+    <t>Akash</t>
+  </si>
+  <si>
+    <t>Meera</t>
+  </si>
+  <si>
+    <t>Chirayu</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Sem2</t>
+  </si>
+  <si>
+    <t>Sem1</t>
   </si>
 </sst>
 </file>
@@ -370,36 +397,127 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
